--- a/data/trans_orig/P14A23-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P14A23-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3156AF8E-0E13-4B9A-A3C3-68F85CF758C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CEAECB79-BAF7-443F-A718-36A4A4F2587F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{60E5389F-9A7E-4B34-8551-9D003E365D90}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{8C13422E-2452-4A16-817B-4006B6CF359A}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -84,13 +84,13 @@
     <t>76,79%</t>
   </si>
   <si>
-    <t>42,12%</t>
+    <t>41,85%</t>
   </si>
   <si>
     <t>82,65%</t>
   </si>
   <si>
-    <t>51,99%</t>
+    <t>51,1%</t>
   </si>
   <si>
     <t>No</t>
@@ -108,13 +108,13 @@
     <t>23,21%</t>
   </si>
   <si>
-    <t>57,88%</t>
+    <t>58,15%</t>
   </si>
   <si>
     <t>17,35%</t>
   </si>
   <si>
-    <t>48,01%</t>
+    <t>48,9%</t>
   </si>
   <si>
     <t>2/10</t>
@@ -123,400 +123,394 @@
     <t>77,44%</t>
   </si>
   <si>
-    <t>54,96%</t>
-  </si>
-  <si>
-    <t>91,4%</t>
+    <t>54,67%</t>
+  </si>
+  <si>
+    <t>91,26%</t>
   </si>
   <si>
     <t>85,91%</t>
   </si>
   <si>
-    <t>76,91%</t>
-  </si>
-  <si>
-    <t>92,46%</t>
+    <t>76,23%</t>
+  </si>
+  <si>
+    <t>92,44%</t>
   </si>
   <si>
     <t>84,05%</t>
   </si>
   <si>
-    <t>75,72%</t>
+    <t>76,72%</t>
+  </si>
+  <si>
+    <t>90,13%</t>
+  </si>
+  <si>
+    <t>22,56%</t>
+  </si>
+  <si>
+    <t>8,74%</t>
+  </si>
+  <si>
+    <t>45,33%</t>
+  </si>
+  <si>
+    <t>14,09%</t>
+  </si>
+  <si>
+    <t>7,56%</t>
+  </si>
+  <si>
+    <t>23,77%</t>
+  </si>
+  <si>
+    <t>15,95%</t>
+  </si>
+  <si>
+    <t>9,87%</t>
+  </si>
+  <si>
+    <t>23,28%</t>
+  </si>
+  <si>
+    <t>10/50</t>
+  </si>
+  <si>
+    <t>81,57%</t>
+  </si>
+  <si>
+    <t>66,84%</t>
+  </si>
+  <si>
+    <t>91,16%</t>
+  </si>
+  <si>
+    <t>92,98%</t>
+  </si>
+  <si>
+    <t>86,17%</t>
+  </si>
+  <si>
+    <t>97,17%</t>
+  </si>
+  <si>
+    <t>89,71%</t>
+  </si>
+  <si>
+    <t>83,43%</t>
+  </si>
+  <si>
+    <t>94,07%</t>
+  </si>
+  <si>
+    <t>18,43%</t>
+  </si>
+  <si>
+    <t>8,84%</t>
+  </si>
+  <si>
+    <t>33,16%</t>
+  </si>
+  <si>
+    <t>7,02%</t>
+  </si>
+  <si>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>13,83%</t>
+  </si>
+  <si>
+    <t>10,29%</t>
+  </si>
+  <si>
+    <t>5,93%</t>
+  </si>
+  <si>
+    <t>16,57%</t>
+  </si>
+  <si>
+    <t>mas de 50</t>
+  </si>
+  <si>
+    <t>81,38%</t>
+  </si>
+  <si>
+    <t>56,22%</t>
+  </si>
+  <si>
+    <t>95,24%</t>
+  </si>
+  <si>
+    <t>97,45%</t>
+  </si>
+  <si>
+    <t>91,1%</t>
+  </si>
+  <si>
+    <t>93,55%</t>
+  </si>
+  <si>
+    <t>86,15%</t>
+  </si>
+  <si>
+    <t>97,89%</t>
+  </si>
+  <si>
+    <t>18,62%</t>
+  </si>
+  <si>
+    <t>4,76%</t>
+  </si>
+  <si>
+    <t>43,78%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>8,9%</t>
+  </si>
+  <si>
+    <t>6,45%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>13,85%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>95,72%</t>
+  </si>
+  <si>
+    <t>84,86%</t>
+  </si>
+  <si>
+    <t>93,46%</t>
+  </si>
+  <si>
+    <t>88,45%</t>
+  </si>
+  <si>
+    <t>96,92%</t>
+  </si>
+  <si>
+    <t>89,55%</t>
+  </si>
+  <si>
+    <t>96,95%</t>
+  </si>
+  <si>
+    <t>4,28%</t>
+  </si>
+  <si>
+    <t>15,14%</t>
+  </si>
+  <si>
+    <t>6,54%</t>
+  </si>
+  <si>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>11,55%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>10,45%</t>
+  </si>
+  <si>
+    <t>85,71%</t>
+  </si>
+  <si>
+    <t>78,06%</t>
+  </si>
+  <si>
+    <t>90,53%</t>
+  </si>
+  <si>
+    <t>92,2%</t>
+  </si>
+  <si>
+    <t>89,31%</t>
+  </si>
+  <si>
+    <t>94,73%</t>
+  </si>
+  <si>
+    <t>90,51%</t>
+  </si>
+  <si>
+    <t>87,86%</t>
+  </si>
+  <si>
+    <t>92,88%</t>
+  </si>
+  <si>
+    <t>14,29%</t>
+  </si>
+  <si>
+    <t>9,47%</t>
+  </si>
+  <si>
+    <t>21,94%</t>
+  </si>
+  <si>
+    <t>7,8%</t>
+  </si>
+  <si>
+    <t>5,27%</t>
+  </si>
+  <si>
+    <t>10,69%</t>
+  </si>
+  <si>
+    <t>9,49%</t>
+  </si>
+  <si>
+    <t>7,12%</t>
+  </si>
+  <si>
+    <t>12,14%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población que recibe medicación o terapia por depresión o ansiedad en 2015 (Tasa respuesta: 6,03%)</t>
+  </si>
+  <si>
+    <t>80,37%</t>
+  </si>
+  <si>
+    <t>83,84%</t>
+  </si>
+  <si>
+    <t>60,72%</t>
+  </si>
+  <si>
+    <t>95,16%</t>
+  </si>
+  <si>
+    <t>83,1%</t>
+  </si>
+  <si>
+    <t>63,33%</t>
+  </si>
+  <si>
+    <t>95,54%</t>
+  </si>
+  <si>
+    <t>19,63%</t>
+  </si>
+  <si>
+    <t>16,16%</t>
+  </si>
+  <si>
+    <t>4,84%</t>
+  </si>
+  <si>
+    <t>39,28%</t>
+  </si>
+  <si>
+    <t>16,9%</t>
+  </si>
+  <si>
+    <t>4,46%</t>
+  </si>
+  <si>
+    <t>36,67%</t>
+  </si>
+  <si>
+    <t>91,6%</t>
+  </si>
+  <si>
+    <t>56,35%</t>
+  </si>
+  <si>
+    <t>98,01%</t>
+  </si>
+  <si>
+    <t>89,88%</t>
+  </si>
+  <si>
+    <t>96,96%</t>
+  </si>
+  <si>
+    <t>89,43%</t>
+  </si>
+  <si>
+    <t>8,4%</t>
+  </si>
+  <si>
+    <t>43,65%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>10,12%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>10,57%</t>
+  </si>
+  <si>
+    <t>95,55%</t>
+  </si>
+  <si>
+    <t>81,44%</t>
+  </si>
+  <si>
+    <t>96,33%</t>
   </si>
   <si>
     <t>90,39%</t>
   </si>
   <si>
-    <t>22,56%</t>
-  </si>
-  <si>
-    <t>8,6%</t>
-  </si>
-  <si>
-    <t>45,04%</t>
-  </si>
-  <si>
-    <t>14,09%</t>
-  </si>
-  <si>
-    <t>7,54%</t>
-  </si>
-  <si>
-    <t>23,09%</t>
-  </si>
-  <si>
-    <t>15,95%</t>
+    <t>98,88%</t>
+  </si>
+  <si>
+    <t>96,18%</t>
+  </si>
+  <si>
+    <t>89,51%</t>
+  </si>
+  <si>
+    <t>98,96%</t>
+  </si>
+  <si>
+    <t>4,45%</t>
+  </si>
+  <si>
+    <t>18,56%</t>
+  </si>
+  <si>
+    <t>3,67%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
   </si>
   <si>
     <t>9,61%</t>
   </si>
   <si>
-    <t>24,28%</t>
-  </si>
-  <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>81,57%</t>
-  </si>
-  <si>
-    <t>68,43%</t>
-  </si>
-  <si>
-    <t>91,56%</t>
-  </si>
-  <si>
-    <t>92,98%</t>
-  </si>
-  <si>
-    <t>86,0%</t>
-  </si>
-  <si>
-    <t>97,22%</t>
-  </si>
-  <si>
-    <t>89,71%</t>
-  </si>
-  <si>
-    <t>83,23%</t>
-  </si>
-  <si>
-    <t>93,79%</t>
-  </si>
-  <si>
-    <t>18,43%</t>
-  </si>
-  <si>
-    <t>8,44%</t>
-  </si>
-  <si>
-    <t>31,57%</t>
-  </si>
-  <si>
-    <t>7,02%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>14,0%</t>
-  </si>
-  <si>
-    <t>10,29%</t>
-  </si>
-  <si>
-    <t>6,21%</t>
-  </si>
-  <si>
-    <t>16,77%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>81,38%</t>
-  </si>
-  <si>
-    <t>54,46%</t>
-  </si>
-  <si>
-    <t>95,29%</t>
-  </si>
-  <si>
-    <t>97,45%</t>
-  </si>
-  <si>
-    <t>90,93%</t>
-  </si>
-  <si>
-    <t>93,55%</t>
-  </si>
-  <si>
-    <t>84,98%</t>
-  </si>
-  <si>
-    <t>97,61%</t>
-  </si>
-  <si>
-    <t>18,62%</t>
-  </si>
-  <si>
-    <t>4,71%</t>
-  </si>
-  <si>
-    <t>45,54%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>9,07%</t>
-  </si>
-  <si>
-    <t>6,45%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>15,02%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>95,72%</t>
-  </si>
-  <si>
-    <t>86,97%</t>
-  </si>
-  <si>
-    <t>93,46%</t>
-  </si>
-  <si>
-    <t>87,46%</t>
-  </si>
-  <si>
-    <t>96,78%</t>
-  </si>
-  <si>
-    <t>94,07%</t>
-  </si>
-  <si>
-    <t>89,58%</t>
-  </si>
-  <si>
-    <t>97,02%</t>
-  </si>
-  <si>
-    <t>4,28%</t>
-  </si>
-  <si>
-    <t>13,03%</t>
-  </si>
-  <si>
-    <t>6,54%</t>
-  </si>
-  <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>12,54%</t>
-  </si>
-  <si>
-    <t>5,93%</t>
-  </si>
-  <si>
-    <t>2,98%</t>
-  </si>
-  <si>
-    <t>10,42%</t>
-  </si>
-  <si>
-    <t>85,71%</t>
-  </si>
-  <si>
-    <t>78,39%</t>
-  </si>
-  <si>
-    <t>91,37%</t>
-  </si>
-  <si>
-    <t>92,2%</t>
-  </si>
-  <si>
-    <t>88,94%</t>
-  </si>
-  <si>
-    <t>94,67%</t>
-  </si>
-  <si>
-    <t>90,51%</t>
-  </si>
-  <si>
-    <t>87,54%</t>
-  </si>
-  <si>
-    <t>92,96%</t>
-  </si>
-  <si>
-    <t>14,29%</t>
-  </si>
-  <si>
-    <t>8,63%</t>
-  </si>
-  <si>
-    <t>21,61%</t>
-  </si>
-  <si>
-    <t>7,8%</t>
-  </si>
-  <si>
-    <t>5,33%</t>
-  </si>
-  <si>
-    <t>11,06%</t>
-  </si>
-  <si>
-    <t>9,49%</t>
-  </si>
-  <si>
-    <t>7,04%</t>
-  </si>
-  <si>
-    <t>12,46%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población que recibe medicación o terapia por depresión o ansiedad en 2015 (Tasa respuesta: 6,03%)</t>
-  </si>
-  <si>
-    <t>80,37%</t>
-  </si>
-  <si>
-    <t>26,31%</t>
-  </si>
-  <si>
-    <t>83,84%</t>
-  </si>
-  <si>
-    <t>59,52%</t>
-  </si>
-  <si>
-    <t>95,19%</t>
-  </si>
-  <si>
-    <t>83,1%</t>
-  </si>
-  <si>
-    <t>61,63%</t>
-  </si>
-  <si>
-    <t>95,68%</t>
-  </si>
-  <si>
-    <t>19,63%</t>
-  </si>
-  <si>
-    <t>73,69%</t>
-  </si>
-  <si>
-    <t>16,16%</t>
-  </si>
-  <si>
-    <t>4,81%</t>
-  </si>
-  <si>
-    <t>40,48%</t>
-  </si>
-  <si>
-    <t>16,9%</t>
-  </si>
-  <si>
-    <t>4,32%</t>
-  </si>
-  <si>
-    <t>38,37%</t>
-  </si>
-  <si>
-    <t>91,6%</t>
-  </si>
-  <si>
-    <t>58,08%</t>
-  </si>
-  <si>
-    <t>98,01%</t>
-  </si>
-  <si>
-    <t>91,14%</t>
-  </si>
-  <si>
-    <t>96,96%</t>
-  </si>
-  <si>
-    <t>90,16%</t>
-  </si>
-  <si>
-    <t>8,4%</t>
-  </si>
-  <si>
-    <t>41,92%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>8,86%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>9,84%</t>
-  </si>
-  <si>
-    <t>95,55%</t>
-  </si>
-  <si>
-    <t>80,78%</t>
-  </si>
-  <si>
-    <t>96,33%</t>
-  </si>
-  <si>
-    <t>90,63%</t>
-  </si>
-  <si>
-    <t>98,9%</t>
-  </si>
-  <si>
-    <t>96,18%</t>
-  </si>
-  <si>
-    <t>99,08%</t>
-  </si>
-  <si>
-    <t>4,45%</t>
-  </si>
-  <si>
-    <t>19,22%</t>
-  </si>
-  <si>
-    <t>3,67%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>9,37%</t>
-  </si>
-  <si>
     <t>3,82%</t>
   </si>
   <si>
-    <t>0,92%</t>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>10,49%</t>
   </si>
   <si>
     <t>92,39%</t>
@@ -525,13 +519,13 @@
     <t>98,37%</t>
   </si>
   <si>
-    <t>91,91%</t>
+    <t>91,93%</t>
   </si>
   <si>
     <t>98,82%</t>
   </si>
   <si>
-    <t>94,47%</t>
+    <t>95,21%</t>
   </si>
   <si>
     <t>7,61%</t>
@@ -540,85 +534,88 @@
     <t>1,63%</t>
   </si>
   <si>
-    <t>8,09%</t>
+    <t>8,07%</t>
   </si>
   <si>
     <t>1,18%</t>
   </si>
   <si>
-    <t>5,53%</t>
+    <t>4,79%</t>
   </si>
   <si>
     <t>96,3%</t>
   </si>
   <si>
-    <t>84,48%</t>
+    <t>81,24%</t>
   </si>
   <si>
     <t>96,72%</t>
   </si>
   <si>
-    <t>91,36%</t>
-  </si>
-  <si>
-    <t>99,0%</t>
+    <t>91,45%</t>
+  </si>
+  <si>
+    <t>99,02%</t>
   </si>
   <si>
     <t>96,62%</t>
   </si>
   <si>
-    <t>92,08%</t>
-  </si>
-  <si>
-    <t>99,12%</t>
+    <t>92,24%</t>
+  </si>
+  <si>
+    <t>99,14%</t>
   </si>
   <si>
     <t>3,7%</t>
   </si>
   <si>
-    <t>15,52%</t>
+    <t>18,76%</t>
   </si>
   <si>
     <t>3,28%</t>
   </si>
   <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>8,64%</t>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>8,55%</t>
   </si>
   <si>
     <t>3,38%</t>
   </si>
   <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>7,92%</t>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>7,76%</t>
   </si>
   <si>
     <t>95,79%</t>
   </si>
   <si>
+    <t>89,9%</t>
+  </si>
+  <si>
     <t>98,95%</t>
   </si>
   <si>
     <t>96,54%</t>
   </si>
   <si>
-    <t>94,21%</t>
-  </si>
-  <si>
-    <t>98,21%</t>
+    <t>94,05%</t>
+  </si>
+  <si>
+    <t>98,16%</t>
   </si>
   <si>
     <t>96,37%</t>
   </si>
   <si>
-    <t>94,32%</t>
-  </si>
-  <si>
-    <t>97,84%</t>
+    <t>94,11%</t>
+  </si>
+  <si>
+    <t>97,9%</t>
   </si>
   <si>
     <t>4,21%</t>
@@ -627,22 +624,25 @@
     <t>1,05%</t>
   </si>
   <si>
+    <t>10,1%</t>
+  </si>
+  <si>
     <t>3,46%</t>
   </si>
   <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>5,79%</t>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>5,95%</t>
   </si>
   <si>
     <t>3,63%</t>
   </si>
   <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>5,68%</t>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>5,89%</t>
   </si>
 </sst>
 </file>
@@ -1054,7 +1054,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BEE27C73-A85E-43EA-A0C9-A58355180517}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5471D03F-FBC2-4F3A-92AB-69D8C641F12F}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1828,13 +1828,13 @@
         <v>153602</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>88</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1849,13 +1849,13 @@
         <v>1883</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>19</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H17" s="7">
         <v>8</v>
@@ -1864,13 +1864,13 @@
         <v>7795</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>93</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>94</v>
       </c>
       <c r="M17" s="7">
         <v>10</v>
@@ -1879,13 +1879,13 @@
         <v>9678</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>95</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1953,13 +1953,13 @@
         <v>121422</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>98</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>100</v>
       </c>
       <c r="H19" s="7">
         <v>350</v>
@@ -1968,13 +1968,13 @@
         <v>371981</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>103</v>
       </c>
       <c r="M19" s="7">
         <v>459</v>
@@ -1983,13 +1983,13 @@
         <v>493401</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2004,13 +2004,13 @@
         <v>20246</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>107</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>109</v>
       </c>
       <c r="H20" s="7">
         <v>30</v>
@@ -2019,13 +2019,13 @@
         <v>31478</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>110</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>112</v>
       </c>
       <c r="M20" s="7">
         <v>48</v>
@@ -2034,13 +2034,13 @@
         <v>51725</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>113</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2096,7 +2096,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
   </sheetData>
@@ -2117,7 +2117,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4498A387-6CC5-484C-9C97-11A86A1535A8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83D8D9DA-0EAE-478B-B489-87907A7DCFC9}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2134,7 +2134,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2241,10 +2241,10 @@
         <v>3705</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>119</v>
+        <v>19</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>11</v>
@@ -2256,13 +2256,13 @@
         <v>14283</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="M4" s="7">
         <v>17</v>
@@ -2271,13 +2271,13 @@
         <v>17989</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2292,13 +2292,13 @@
         <v>905</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>19</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>127</v>
+        <v>11</v>
       </c>
       <c r="H5" s="7">
         <v>3</v>
@@ -2307,13 +2307,13 @@
         <v>2753</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="M5" s="7">
         <v>4</v>
@@ -2322,13 +2322,13 @@
         <v>3657</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2396,10 +2396,10 @@
         <v>10952</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="G7" s="7" t="s">
         <v>11</v>
@@ -2411,10 +2411,10 @@
         <v>59459</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="L7" s="7" t="s">
         <v>11</v>
@@ -2426,10 +2426,10 @@
         <v>70411</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="Q7" s="7" t="s">
         <v>11</v>
@@ -2447,13 +2447,13 @@
         <v>1004</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>19</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="H8" s="7">
         <v>1</v>
@@ -2462,13 +2462,13 @@
         <v>1205</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>19</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="M8" s="7">
         <v>2</v>
@@ -2477,13 +2477,13 @@
         <v>2209</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="P8" s="7" t="s">
         <v>19</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2551,10 +2551,10 @@
         <v>19580</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>11</v>
@@ -2566,13 +2566,13 @@
         <v>79517</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="M10" s="7">
         <v>90</v>
@@ -2581,13 +2581,13 @@
         <v>99097</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>29</v>
+        <v>148</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2602,13 +2602,13 @@
         <v>912</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>19</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="H11" s="7">
         <v>3</v>
@@ -2617,13 +2617,13 @@
         <v>3025</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="M11" s="7">
         <v>4</v>
@@ -2632,13 +2632,13 @@
         <v>3937</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>37</v>
+        <v>157</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2709,7 +2709,7 @@
         <v>11</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="G13" s="7" t="s">
         <v>13</v>
@@ -2721,10 +2721,10 @@
         <v>66688</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="L13" s="7" t="s">
         <v>11</v>
@@ -2736,10 +2736,10 @@
         <v>92520</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="Q13" s="7" t="s">
         <v>11</v>
@@ -2763,7 +2763,7 @@
         <v>20</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="H14" s="7">
         <v>1</v>
@@ -2772,13 +2772,13 @@
         <v>1103</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>19</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="M14" s="7">
         <v>1</v>
@@ -2787,13 +2787,13 @@
         <v>1103</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="P14" s="7" t="s">
         <v>19</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2861,10 +2861,10 @@
         <v>32556</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>11</v>
@@ -2876,13 +2876,13 @@
         <v>101554</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>172</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>174</v>
       </c>
       <c r="M16" s="7">
         <v>121</v>
@@ -2891,13 +2891,13 @@
         <v>134109</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>175</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2912,13 +2912,13 @@
         <v>1252</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>19</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="H17" s="7">
         <v>3</v>
@@ -2927,13 +2927,13 @@
         <v>3440</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>180</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>182</v>
       </c>
       <c r="M17" s="7">
         <v>4</v>
@@ -2942,13 +2942,13 @@
         <v>4692</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>183</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3016,13 +3016,13 @@
         <v>92624</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>186</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>187</v>
       </c>
       <c r="H19" s="7">
         <v>291</v>
@@ -3031,13 +3031,13 @@
         <v>321501</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>188</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>189</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>190</v>
       </c>
       <c r="M19" s="7">
         <v>381</v>
@@ -3046,13 +3046,13 @@
         <v>414125</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>192</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>193</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3067,13 +3067,13 @@
         <v>4073</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>194</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>195</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>97</v>
       </c>
       <c r="H20" s="7">
         <v>11</v>
@@ -3159,7 +3159,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P14A23-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P14A23-Habitat-trans_orig.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CEAECB79-BAF7-443F-A718-36A4A4F2587F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3D56972F-F42F-43EA-9665-A79F63E5F0D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{8C13422E-2452-4A16-817B-4006B6CF359A}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{AEF7C4D1-F6DF-408B-B8A6-47F0EA1509EE}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
-    <sheet name="2015" sheetId="3" r:id="rId2"/>
+    <sheet name="2016" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -66,7 +66,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Si</t>
@@ -84,13 +84,13 @@
     <t>76,79%</t>
   </si>
   <si>
-    <t>41,85%</t>
+    <t>42,2%</t>
   </si>
   <si>
     <t>82,65%</t>
   </si>
   <si>
-    <t>51,1%</t>
+    <t>56,92%</t>
   </si>
   <si>
     <t>No</t>
@@ -108,409 +108,409 @@
     <t>23,21%</t>
   </si>
   <si>
-    <t>58,15%</t>
+    <t>57,8%</t>
   </si>
   <si>
     <t>17,35%</t>
   </si>
   <si>
-    <t>48,9%</t>
-  </si>
-  <si>
-    <t>2/10</t>
+    <t>43,08%</t>
+  </si>
+  <si>
+    <t>2-10.000 hab</t>
   </si>
   <si>
     <t>77,44%</t>
   </si>
   <si>
-    <t>54,67%</t>
+    <t>56,08%</t>
+  </si>
+  <si>
+    <t>91,47%</t>
+  </si>
+  <si>
+    <t>85,91%</t>
+  </si>
+  <si>
+    <t>76,34%</t>
+  </si>
+  <si>
+    <t>92,31%</t>
+  </si>
+  <si>
+    <t>84,05%</t>
+  </si>
+  <si>
+    <t>75,33%</t>
+  </si>
+  <si>
+    <t>90,48%</t>
+  </si>
+  <si>
+    <t>22,56%</t>
+  </si>
+  <si>
+    <t>8,53%</t>
+  </si>
+  <si>
+    <t>43,92%</t>
+  </si>
+  <si>
+    <t>14,09%</t>
+  </si>
+  <si>
+    <t>7,69%</t>
+  </si>
+  <si>
+    <t>23,66%</t>
+  </si>
+  <si>
+    <t>15,95%</t>
+  </si>
+  <si>
+    <t>9,52%</t>
+  </si>
+  <si>
+    <t>24,67%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>81,57%</t>
+  </si>
+  <si>
+    <t>66,62%</t>
+  </si>
+  <si>
+    <t>90,9%</t>
+  </si>
+  <si>
+    <t>92,98%</t>
+  </si>
+  <si>
+    <t>86,27%</t>
+  </si>
+  <si>
+    <t>97,26%</t>
+  </si>
+  <si>
+    <t>89,71%</t>
+  </si>
+  <si>
+    <t>82,83%</t>
+  </si>
+  <si>
+    <t>93,56%</t>
+  </si>
+  <si>
+    <t>18,43%</t>
+  </si>
+  <si>
+    <t>9,1%</t>
+  </si>
+  <si>
+    <t>33,38%</t>
+  </si>
+  <si>
+    <t>7,02%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>13,73%</t>
+  </si>
+  <si>
+    <t>10,29%</t>
+  </si>
+  <si>
+    <t>6,44%</t>
+  </si>
+  <si>
+    <t>17,17%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>81,38%</t>
+  </si>
+  <si>
+    <t>54,24%</t>
+  </si>
+  <si>
+    <t>95,09%</t>
+  </si>
+  <si>
+    <t>97,45%</t>
+  </si>
+  <si>
+    <t>91,03%</t>
+  </si>
+  <si>
+    <t>93,55%</t>
+  </si>
+  <si>
+    <t>86,55%</t>
+  </si>
+  <si>
+    <t>97,81%</t>
+  </si>
+  <si>
+    <t>18,62%</t>
+  </si>
+  <si>
+    <t>4,91%</t>
+  </si>
+  <si>
+    <t>45,76%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>8,97%</t>
+  </si>
+  <si>
+    <t>6,45%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>13,45%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>95,72%</t>
+  </si>
+  <si>
+    <t>84,59%</t>
+  </si>
+  <si>
+    <t>93,46%</t>
+  </si>
+  <si>
+    <t>87,65%</t>
+  </si>
+  <si>
+    <t>97,51%</t>
+  </si>
+  <si>
+    <t>94,07%</t>
+  </si>
+  <si>
+    <t>89,66%</t>
+  </si>
+  <si>
+    <t>97,02%</t>
+  </si>
+  <si>
+    <t>4,28%</t>
+  </si>
+  <si>
+    <t>15,41%</t>
+  </si>
+  <si>
+    <t>6,54%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>12,35%</t>
+  </si>
+  <si>
+    <t>5,93%</t>
+  </si>
+  <si>
+    <t>2,98%</t>
+  </si>
+  <si>
+    <t>10,34%</t>
+  </si>
+  <si>
+    <t>85,71%</t>
+  </si>
+  <si>
+    <t>78,75%</t>
   </si>
   <si>
     <t>91,26%</t>
   </si>
   <si>
-    <t>85,91%</t>
-  </si>
-  <si>
-    <t>76,23%</t>
-  </si>
-  <si>
-    <t>92,44%</t>
-  </si>
-  <si>
-    <t>84,05%</t>
-  </si>
-  <si>
-    <t>76,72%</t>
+    <t>92,2%</t>
+  </si>
+  <si>
+    <t>89,05%</t>
+  </si>
+  <si>
+    <t>94,77%</t>
+  </si>
+  <si>
+    <t>90,51%</t>
+  </si>
+  <si>
+    <t>87,8%</t>
+  </si>
+  <si>
+    <t>93,04%</t>
+  </si>
+  <si>
+    <t>14,29%</t>
+  </si>
+  <si>
+    <t>8,74%</t>
+  </si>
+  <si>
+    <t>21,25%</t>
+  </si>
+  <si>
+    <t>7,8%</t>
+  </si>
+  <si>
+    <t>5,23%</t>
+  </si>
+  <si>
+    <t>10,95%</t>
+  </si>
+  <si>
+    <t>9,49%</t>
+  </si>
+  <si>
+    <t>6,96%</t>
+  </si>
+  <si>
+    <t>12,2%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población que recibe medicación o terapia por depresión o ansiedad en 2016 (Tasa respuesta: 6,03%)</t>
+  </si>
+  <si>
+    <t>80,37%</t>
+  </si>
+  <si>
+    <t>83,84%</t>
+  </si>
+  <si>
+    <t>59,11%</t>
+  </si>
+  <si>
+    <t>95,23%</t>
+  </si>
+  <si>
+    <t>83,1%</t>
+  </si>
+  <si>
+    <t>62,85%</t>
+  </si>
+  <si>
+    <t>95,69%</t>
+  </si>
+  <si>
+    <t>19,63%</t>
+  </si>
+  <si>
+    <t>16,16%</t>
+  </si>
+  <si>
+    <t>4,77%</t>
+  </si>
+  <si>
+    <t>40,89%</t>
+  </si>
+  <si>
+    <t>16,9%</t>
+  </si>
+  <si>
+    <t>4,31%</t>
+  </si>
+  <si>
+    <t>37,15%</t>
+  </si>
+  <si>
+    <t>91,6%</t>
+  </si>
+  <si>
+    <t>65,25%</t>
+  </si>
+  <si>
+    <t>98,01%</t>
   </si>
   <si>
     <t>90,13%</t>
   </si>
   <si>
-    <t>22,56%</t>
-  </si>
-  <si>
-    <t>8,74%</t>
-  </si>
-  <si>
-    <t>45,33%</t>
-  </si>
-  <si>
-    <t>14,09%</t>
-  </si>
-  <si>
-    <t>7,56%</t>
-  </si>
-  <si>
-    <t>23,77%</t>
-  </si>
-  <si>
-    <t>15,95%</t>
+    <t>96,96%</t>
+  </si>
+  <si>
+    <t>90,45%</t>
+  </si>
+  <si>
+    <t>8,4%</t>
+  </si>
+  <si>
+    <t>34,75%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
   </si>
   <si>
     <t>9,87%</t>
   </si>
   <si>
-    <t>23,28%</t>
-  </si>
-  <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>81,57%</t>
-  </si>
-  <si>
-    <t>66,84%</t>
-  </si>
-  <si>
-    <t>91,16%</t>
-  </si>
-  <si>
-    <t>92,98%</t>
-  </si>
-  <si>
-    <t>86,17%</t>
-  </si>
-  <si>
-    <t>97,17%</t>
-  </si>
-  <si>
-    <t>89,71%</t>
-  </si>
-  <si>
-    <t>83,43%</t>
-  </si>
-  <si>
-    <t>94,07%</t>
-  </si>
-  <si>
-    <t>18,43%</t>
-  </si>
-  <si>
-    <t>8,84%</t>
-  </si>
-  <si>
-    <t>33,16%</t>
-  </si>
-  <si>
-    <t>7,02%</t>
-  </si>
-  <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>13,83%</t>
-  </si>
-  <si>
-    <t>10,29%</t>
-  </si>
-  <si>
-    <t>5,93%</t>
-  </si>
-  <si>
-    <t>16,57%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>81,38%</t>
-  </si>
-  <si>
-    <t>56,22%</t>
-  </si>
-  <si>
-    <t>95,24%</t>
-  </si>
-  <si>
-    <t>97,45%</t>
-  </si>
-  <si>
-    <t>91,1%</t>
-  </si>
-  <si>
-    <t>93,55%</t>
-  </si>
-  <si>
-    <t>86,15%</t>
-  </si>
-  <si>
-    <t>97,89%</t>
-  </si>
-  <si>
-    <t>18,62%</t>
-  </si>
-  <si>
-    <t>4,76%</t>
-  </si>
-  <si>
-    <t>43,78%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>8,9%</t>
-  </si>
-  <si>
-    <t>6,45%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>13,85%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>95,72%</t>
-  </si>
-  <si>
-    <t>84,86%</t>
-  </si>
-  <si>
-    <t>93,46%</t>
-  </si>
-  <si>
-    <t>88,45%</t>
-  </si>
-  <si>
-    <t>96,92%</t>
-  </si>
-  <si>
-    <t>89,55%</t>
-  </si>
-  <si>
-    <t>96,95%</t>
-  </si>
-  <si>
-    <t>4,28%</t>
-  </si>
-  <si>
-    <t>15,14%</t>
-  </si>
-  <si>
-    <t>6,54%</t>
-  </si>
-  <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>11,55%</t>
-  </si>
-  <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>10,45%</t>
-  </si>
-  <si>
-    <t>85,71%</t>
-  </si>
-  <si>
-    <t>78,06%</t>
-  </si>
-  <si>
-    <t>90,53%</t>
-  </si>
-  <si>
-    <t>92,2%</t>
-  </si>
-  <si>
-    <t>89,31%</t>
-  </si>
-  <si>
-    <t>94,73%</t>
-  </si>
-  <si>
-    <t>90,51%</t>
-  </si>
-  <si>
-    <t>87,86%</t>
-  </si>
-  <si>
-    <t>92,88%</t>
-  </si>
-  <si>
-    <t>14,29%</t>
-  </si>
-  <si>
-    <t>9,47%</t>
-  </si>
-  <si>
-    <t>21,94%</t>
-  </si>
-  <si>
-    <t>7,8%</t>
-  </si>
-  <si>
-    <t>5,27%</t>
-  </si>
-  <si>
-    <t>10,69%</t>
-  </si>
-  <si>
-    <t>9,49%</t>
-  </si>
-  <si>
-    <t>7,12%</t>
-  </si>
-  <si>
-    <t>12,14%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población que recibe medicación o terapia por depresión o ansiedad en 2015 (Tasa respuesta: 6,03%)</t>
-  </si>
-  <si>
-    <t>80,37%</t>
-  </si>
-  <si>
-    <t>83,84%</t>
-  </si>
-  <si>
-    <t>60,72%</t>
-  </si>
-  <si>
-    <t>95,16%</t>
-  </si>
-  <si>
-    <t>83,1%</t>
-  </si>
-  <si>
-    <t>63,33%</t>
-  </si>
-  <si>
-    <t>95,54%</t>
-  </si>
-  <si>
-    <t>19,63%</t>
-  </si>
-  <si>
-    <t>16,16%</t>
-  </si>
-  <si>
-    <t>4,84%</t>
-  </si>
-  <si>
-    <t>39,28%</t>
-  </si>
-  <si>
-    <t>16,9%</t>
-  </si>
-  <si>
-    <t>4,46%</t>
-  </si>
-  <si>
-    <t>36,67%</t>
-  </si>
-  <si>
-    <t>91,6%</t>
-  </si>
-  <si>
-    <t>56,35%</t>
-  </si>
-  <si>
-    <t>98,01%</t>
-  </si>
-  <si>
-    <t>89,88%</t>
-  </si>
-  <si>
-    <t>96,96%</t>
-  </si>
-  <si>
-    <t>89,43%</t>
-  </si>
-  <si>
-    <t>8,4%</t>
-  </si>
-  <si>
-    <t>43,65%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>10,12%</t>
-  </si>
-  <si>
     <t>3,04%</t>
   </si>
   <si>
-    <t>10,57%</t>
+    <t>9,55%</t>
   </si>
   <si>
     <t>95,55%</t>
   </si>
   <si>
-    <t>81,44%</t>
+    <t>79,26%</t>
   </si>
   <si>
     <t>96,33%</t>
   </si>
   <si>
-    <t>90,39%</t>
-  </si>
-  <si>
-    <t>98,88%</t>
+    <t>90,12%</t>
   </si>
   <si>
     <t>96,18%</t>
   </si>
   <si>
-    <t>89,51%</t>
-  </si>
-  <si>
-    <t>98,96%</t>
+    <t>90,75%</t>
+  </si>
+  <si>
+    <t>99,04%</t>
   </si>
   <si>
     <t>4,45%</t>
   </si>
   <si>
-    <t>18,56%</t>
+    <t>20,74%</t>
   </si>
   <si>
     <t>3,67%</t>
   </si>
   <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>9,61%</t>
+    <t>9,88%</t>
   </si>
   <si>
     <t>3,82%</t>
   </si>
   <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>10,49%</t>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>9,25%</t>
   </si>
   <si>
     <t>92,39%</t>
@@ -519,13 +519,13 @@
     <t>98,37%</t>
   </si>
   <si>
-    <t>91,93%</t>
+    <t>91,73%</t>
   </si>
   <si>
     <t>98,82%</t>
   </si>
   <si>
-    <t>95,21%</t>
+    <t>94,47%</t>
   </si>
   <si>
     <t>7,61%</t>
@@ -534,25 +534,25 @@
     <t>1,63%</t>
   </si>
   <si>
-    <t>8,07%</t>
+    <t>8,27%</t>
   </si>
   <si>
     <t>1,18%</t>
   </si>
   <si>
-    <t>4,79%</t>
+    <t>5,53%</t>
   </si>
   <si>
     <t>96,3%</t>
   </si>
   <si>
-    <t>81,24%</t>
+    <t>81,59%</t>
   </si>
   <si>
     <t>96,72%</t>
   </si>
   <si>
-    <t>91,45%</t>
+    <t>91,08%</t>
   </si>
   <si>
     <t>99,02%</t>
@@ -570,7 +570,7 @@
     <t>3,7%</t>
   </si>
   <si>
-    <t>18,76%</t>
+    <t>18,41%</t>
   </si>
   <si>
     <t>3,28%</t>
@@ -579,7 +579,7 @@
     <t>0,98%</t>
   </si>
   <si>
-    <t>8,55%</t>
+    <t>8,92%</t>
   </si>
   <si>
     <t>3,38%</t>
@@ -594,55 +594,55 @@
     <t>95,79%</t>
   </si>
   <si>
-    <t>89,9%</t>
-  </si>
-  <si>
-    <t>98,95%</t>
+    <t>89,6%</t>
+  </si>
+  <si>
+    <t>98,73%</t>
   </si>
   <si>
     <t>96,54%</t>
   </si>
   <si>
-    <t>94,05%</t>
-  </si>
-  <si>
-    <t>98,16%</t>
+    <t>93,87%</t>
+  </si>
+  <si>
+    <t>98,13%</t>
   </si>
   <si>
     <t>96,37%</t>
   </si>
   <si>
-    <t>94,11%</t>
-  </si>
-  <si>
-    <t>97,9%</t>
+    <t>94,29%</t>
+  </si>
+  <si>
+    <t>98,0%</t>
   </si>
   <si>
     <t>4,21%</t>
   </si>
   <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>10,1%</t>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>10,4%</t>
   </si>
   <si>
     <t>3,46%</t>
   </si>
   <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>5,95%</t>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>6,13%</t>
   </si>
   <si>
     <t>3,63%</t>
   </si>
   <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>5,89%</t>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>5,71%</t>
   </si>
 </sst>
 </file>
@@ -1054,7 +1054,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5471D03F-FBC2-4F3A-92AB-69D8C641F12F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D35D0F2-6EAA-41E3-B7D8-CEB368438064}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1515,7 +1515,7 @@
         <v>133</v>
       </c>
       <c r="N10" s="7">
-        <v>146810</v>
+        <v>146811</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>52</v>
@@ -1617,7 +1617,7 @@
         <v>148</v>
       </c>
       <c r="N12" s="7">
-        <v>163653</v>
+        <v>163654</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>13</v>
@@ -1828,13 +1828,13 @@
         <v>153602</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>54</v>
+        <v>87</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1849,13 +1849,13 @@
         <v>1883</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>19</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H17" s="7">
         <v>8</v>
@@ -1864,13 +1864,13 @@
         <v>7795</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="M17" s="7">
         <v>10</v>
@@ -1879,13 +1879,13 @@
         <v>9678</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>62</v>
+        <v>95</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1953,13 +1953,13 @@
         <v>121422</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="H19" s="7">
         <v>350</v>
@@ -1968,13 +1968,13 @@
         <v>371981</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="M19" s="7">
         <v>459</v>
@@ -1983,13 +1983,13 @@
         <v>493401</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2004,13 +2004,13 @@
         <v>20246</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="H20" s="7">
         <v>30</v>
@@ -2019,13 +2019,13 @@
         <v>31478</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="M20" s="7">
         <v>48</v>
@@ -2034,13 +2034,13 @@
         <v>51725</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2096,7 +2096,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
   </sheetData>
@@ -2117,7 +2117,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83D8D9DA-0EAE-478B-B489-87907A7DCFC9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71712508-45D1-4A01-AEAA-35ECDFA466A2}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2134,7 +2134,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2241,7 +2241,7 @@
         <v>3705</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>19</v>
@@ -2256,13 +2256,13 @@
         <v>14283</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="M4" s="7">
         <v>17</v>
@@ -2271,13 +2271,13 @@
         <v>17989</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2292,7 +2292,7 @@
         <v>905</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>19</v>
@@ -2307,13 +2307,13 @@
         <v>2753</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="M5" s="7">
         <v>4</v>
@@ -2322,13 +2322,13 @@
         <v>3657</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2396,10 +2396,10 @@
         <v>10952</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="G7" s="7" t="s">
         <v>11</v>
@@ -2411,10 +2411,10 @@
         <v>59459</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="L7" s="7" t="s">
         <v>11</v>
@@ -2426,10 +2426,10 @@
         <v>70411</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="Q7" s="7" t="s">
         <v>11</v>
@@ -2447,13 +2447,13 @@
         <v>1004</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>19</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="H8" s="7">
         <v>1</v>
@@ -2462,13 +2462,13 @@
         <v>1205</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>19</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="M8" s="7">
         <v>2</v>
@@ -2477,13 +2477,13 @@
         <v>2209</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="P8" s="7" t="s">
         <v>19</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2551,10 +2551,10 @@
         <v>19580</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>11</v>
@@ -2566,13 +2566,13 @@
         <v>79517</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>146</v>
+        <v>11</v>
       </c>
       <c r="M10" s="7">
         <v>90</v>
@@ -2581,13 +2581,13 @@
         <v>99097</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2602,13 +2602,13 @@
         <v>912</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>19</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="H11" s="7">
         <v>3</v>
@@ -2617,10 +2617,10 @@
         <v>3025</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>153</v>
+        <v>19</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>154</v>
@@ -3159,7 +3159,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
   </sheetData>
